--- a/docs/CareConnect-Subscore-Observation-1.xlsx
+++ b/docs/CareConnect-Subscore-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="549">
   <si>
     <t>Path</t>
   </si>
@@ -1247,6 +1247,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.system</t>
@@ -7818,10 +7824,10 @@
         <v>395</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7896,7 +7902,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7907,7 +7913,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7949,7 +7955,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8026,7 +8032,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8143,7 +8149,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8260,7 +8266,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8377,7 +8383,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8496,7 +8502,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8615,7 +8621,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8641,16 +8647,16 @@
         <v>142</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8678,10 +8684,10 @@
         <v>378</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8699,7 +8705,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8720,10 +8726,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8849,7 +8855,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8966,7 +8972,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9083,7 +9089,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>389</v>
@@ -9145,13 +9151,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9204,7 +9210,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9319,7 +9325,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9434,7 +9440,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>394</v>
@@ -9462,10 +9468,10 @@
         <v>395</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9540,7 +9546,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9551,7 +9557,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9593,7 +9599,7 @@
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>45</v>
@@ -9670,7 +9676,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9787,7 +9793,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9904,7 +9910,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10021,7 +10027,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10140,7 +10146,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10259,7 +10265,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10282,16 +10288,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10341,7 +10347,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10359,24 +10365,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10399,16 +10405,16 @@
         <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10458,7 +10464,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10476,24 +10482,24 @@
         <v>45</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10516,19 +10522,19 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10577,7 +10583,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10589,7 +10595,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10598,10 +10604,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10612,7 +10618,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10727,7 +10733,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10844,11 +10850,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10873,7 +10879,7 @@
         <v>108</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>105</v>
@@ -10926,7 +10932,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -10961,7 +10967,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10984,13 +10990,13 @@
         <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11041,7 +11047,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11050,7 +11056,7 @@
         <v>56</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>45</v>
@@ -11062,10 +11068,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11076,7 +11082,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11099,13 +11105,13 @@
         <v>45</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11156,31 +11162,31 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AM79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11191,7 +11197,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11217,16 +11223,16 @@
         <v>142</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11254,10 +11260,10 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>45</v>
@@ -11275,7 +11281,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11293,10 +11299,10 @@
         <v>45</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>365</v>
@@ -11310,7 +11316,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11336,16 +11342,16 @@
         <v>142</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11373,10 +11379,10 @@
         <v>378</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>45</v>
@@ -11394,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11412,10 +11418,10 @@
         <v>45</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>365</v>
@@ -11429,7 +11435,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11452,17 +11458,17 @@
         <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11511,7 +11517,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11535,7 +11541,7 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11546,7 +11552,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11572,10 +11578,10 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11626,7 +11632,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11647,10 +11653,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11661,7 +11667,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11684,19 +11690,19 @@
         <v>57</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11745,7 +11751,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11757,7 +11763,7 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>45</v>
@@ -11766,10 +11772,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11780,7 +11786,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11895,7 +11901,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12012,11 +12018,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12041,7 +12047,7 @@
         <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>105</v>
@@ -12094,7 +12100,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12129,7 +12135,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12155,23 +12161,23 @@
         <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>45</v>
@@ -12192,10 +12198,10 @@
         <v>136</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12213,7 +12219,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12237,7 +12243,7 @@
         <v>99</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>45</v>
@@ -12248,7 +12254,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12271,13 +12277,13 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12328,7 +12334,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>56</v>
@@ -12352,7 +12358,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12363,7 +12369,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12386,19 +12392,19 @@
         <v>57</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12447,7 +12453,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12459,7 +12465,7 @@
         <v>45</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>45</v>
@@ -12468,10 +12474,10 @@
         <v>45</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12482,7 +12488,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12597,7 +12603,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12714,11 +12720,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12743,7 +12749,7 @@
         <v>108</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>105</v>
@@ -12796,7 +12802,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12831,7 +12837,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12857,10 +12863,10 @@
         <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
@@ -12913,7 +12919,7 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>56</v>
@@ -12931,7 +12937,7 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>282</v>
@@ -12948,7 +12954,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12971,16 +12977,16 @@
         <v>57</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>338</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>340</v>
@@ -13032,7 +13038,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13050,7 +13056,7 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>344</v>
@@ -13067,7 +13073,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13093,13 +13099,13 @@
         <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>349</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>351</v>
@@ -13151,7 +13157,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13186,7 +13192,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13218,7 +13224,7 @@
         <v>359</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>360</v>
@@ -13270,7 +13276,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13305,7 +13311,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13331,16 +13337,16 @@
         <v>45</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13389,7 +13395,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13410,10 +13416,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-Subscore-Observation-1.xlsx
+++ b/docs/CareConnect-Subscore-Observation-1.xlsx
@@ -1881,17 +1881,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1902,22 +1902,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Subscore-Observation-1.xlsx
+++ b/docs/CareConnect-Subscore-Observation-1.xlsx
@@ -1881,17 +1881,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1902,22 +1902,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
